--- a/data-raw/shaw.oats.xlsx
+++ b/data-raw/shaw.oats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E3B9A-A781-466A-9292-BEE6C3B09461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC680364-DBD6-43B2-B88C-11B51C597A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9648" xr2:uid="{321E373D-48C6-4445-B681-714FB7D779E3}"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{321E373D-48C6-4445-B681-714FB7D779E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,9 +456,9 @@
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -608,7 +608,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
